--- a/500all/speech_level/speeches_CHRG-114hhrg99649.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99649.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400097</t>
   </si>
   <si>
-    <t>Susan A. Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    I ask unanimous consent that the ranking member's statement be entered into the record.    The Chairman. Without objection.    [The prepared statement of Mr. Smith can be found in the Appendix on page 39.]</t>
   </si>
   <si>
@@ -76,9 +73,6 @@
     <t>400137</t>
   </si>
   <si>
-    <t>J. Randy Forbes</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Forbes [presiding]. Thank you, Mrs. Davis.    The Chair now recognizes himself for a series of questions.    General Stewart, General Marrs, first of all, thank you both for being here.    General Stewart, I would never instruct a general what to do but I am going to request, especially with those three stars, that you pull that mike just a little closer to you so that we can hear you even better. We are proud of your service. And I was looking at your resume. I wished I had time to read it all in the record, but through all of those over 35 years, I guess now--how many years total do you have?    General Stewart. I think I am starting my 35th year.</t>
   </si>
   <si>
@@ -109,9 +103,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    General Stewart and General Marrs, welcome. Thank you for your testimony before this committee today as we help to shed light on some of the most dangerous threats that are facing the Nation around the world today.    General Stewart, I will start with you. I thought that was a very insightful analysis in terms of the challenges we face, in terms of resurgence of nation-states, breakdown of some traditional states, and the rise of destructive technologies.    Can you give the committee a sense of how you are properly organizing and resourcing the Defense Intelligence Agency to both better understand these threats and understand where they are going in the future?    Maybe some specific examples, so that we understand what the outcomes of these trends are going to be, how they will challenge the United States going forward, and how we are prepared to counter those threats?    General Stewart. Following the lead of my predecessor, you know, we have organized, reorganized the Defense Intelligence Agency along integrated intelligence center lines. That allows us to focus on regional challenges and give a center director all of the authority to work with the combatant commands to understand the many challenges in that region. That is a key foundational portion of what we have done to get a better sense of the challenges that we face.    We have laid on top of that an architecture, at least we are building an architecture. We probably refer to it as ICITE [intel community information technology environment], that will allow us to use a cloud-based architecture to move content, make content available to the analysts wherever they are in the enterprise.    That, I think, will be very significant in making information available and then using some big data analytic tools to help us to see these trends and represent those trends in a more timely manner. That is a very important next step.    And then leveraging or working closely with our partners, our international partners, so that when we understand we have shortfalls or risk, we can use our partners to cover, to mitigate some of those risks or shortfalls. I do not have enough capacity to cover the globe. I will not be able to cover every contingency and every crisis given the structure that we have today, which is why we focus primarily on those five areas that I have talked about.    But we are doing all the things process-wise, organizational-wise, architectural-wise, command and control-wise, to make sure we have the best information ready to deliver to our policymakers. And anything this committee can do to help increase our capacity would be greatly welcomed.</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>400433</t>
   </si>
   <si>
-    <t>Joe Wilson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Chairman Forbes.    And thank you General Stewart, General Marrs, for being here today.    And General Stewart, I appreciate you citing concerns about maintaining our technological edge and evolution of unconventional warfare. This is a focus of the Emerging Threats and Capabilities Subcommittee. I have the privilege of working with Congressman Langevin on these issues, and we look forward to working with you in the future to address that.    And also, General, Jim Clapper, the Director of National Intelligence, recently discussed potential threats being posed by advancements in biotechnology, including an ability to edit human genes, so-called gene editing. I am concerned about the types of technologies falling into the hands of terrorist groups or even lone actors.    Can you describe for the committee the national security threats being posed by these and similar biotechnologies.    General Stewart. I am always hesitant to talk about sequencing a genome. Could we take this to the closed hearing, if that is okay?</t>
   </si>
   <si>
@@ -166,9 +154,6 @@
     <t>400232</t>
   </si>
   <si>
-    <t>Rick Larsen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. Thank you for the patience in letting me get back to my chair. Wasn't too obvious.    General, can you talk a little bit more about China--and I apologize I wasn't here, but I was here for your opening statement--in discussing the three categories of territorial integrity. There was the first one, but then you talked about its projection into the South China Sea.    Do you do strategic or operational assessments or tactical assessments about the intent beyond South China Sea and how China might be using its investment in surface and other modernization for projection beyond the South China Sea?    General Stewart. So we have seen not only reclaiming some 3,000 acres of land in the South China Sea, we also see increasing naval activity in the East China Sea, disputed territory with Japan. Building commercial capability on these outlying regions will ultimately mean that China will want to defend their economic interests.    So we are starting to see surface-to-air missiles being placed in the region. We are starting to see, as I have indicated, increased missile technology that can counter our naval forces. We are seeing outposts being built.</t>
   </si>
   <si>
@@ -187,9 +172,6 @@
     <t>400411</t>
   </si>
   <si>
-    <t>Michael R. Turner</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    General Stewart, there has been much discussion about Russia and the Open Skies Treaty. And so I want to ask you a question about the Open Skies Treaty. Can you please provide the committee with details on the counterintelligence risks to the United States and our allies of a digital electro-optical, EO sensor and an infrared sensor, IR sensor. We are aware these planes fly over not only the United States but also our allies in Europe. And can you provide the committee with any reports or assessments DIA has prepared on these questions?    Now, we have heard, of course, responses that we can just cover things, that we can mitigate this. But if we can, also the Russians can. But the concern I guess we have is what are we actually getting from this treaty, because Russia does get more because of our space assets, the clarity which we have versus the clarity that is offered from their access from Open Skies. And can't this information be used such as simple task such as targeting and threatening the United States?    This is obviously something that has been a significant amount of discussion. I would like to know what the DIA has reviewed, what assessments you have done, and what the DIA has prepared.    General Stewart. I have got to keep this really simple for me. This Open Skies discussion is, think Polaroids in the 1960s, 1970s, and 1980s, versus 1080 high-definition capability as we go to a digital environment. The things that you can see, the amount of data that you can collect, the things that you can do with post-processing using digital techniques allows Russia, in my opinion, to get incredible foundational intelligence on critical infrastructure, bases, ports, all of our facilities.    So from my perspective, it gives them a significant advantage and, yes, we both can use the same techniques. But I have a great concern about the quality of imagery, the quantity of the imagery, the ability to do post-processing of digital imagery, and what that allows them to see as foundational intelligence that I would love to have personally, and I would love to deny the Russians having that capability.</t>
   </si>
   <si>
@@ -205,9 +187,6 @@
     <t>412612</t>
   </si>
   <si>
-    <t>Ruben Gallego</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Lieutenant General Stewart, so what I am hearing here, Russia, China, Iran, North Korea, are the four national threats. We all agree on that. And global jihad is our growing transnational threat. And part of what makes answering these difficult is that they all require very different approaches to deal with them.    So terrorism requires more special forces; China, you know, requires us to have a strong maritime and naval capability; the Russians require the ground forces; and Iran and Korea will continue to use asymmetrical tools to basically mess with us.    From your perspective, is the U.S. meeting these threats with the right balance of resources at this point or into the future? And does refocus towards Asia or the proposed rotational brigade that we are having going through Eastern Europe, for example, allocate our resources smartly enough, or is this an area where we are probably missing the mark, now and maybe looking 5 years forward?    General Stewart. So I am always hesitant to talk about the right force construct, because that really is an intelligence question, and I would defer to the service chief and the chairman to talk about the right force construct. Certainly in my conversations and in the things that we have reported, we have explained the totality of the threat, the challenges that we face. And I think, I would like to defer to the services and the chairman to talk about what is the right construct military forces.</t>
   </si>
   <si>
@@ -220,9 +199,6 @@
     <t>412417</t>
   </si>
   <si>
-    <t>Austin Scott</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    I don't know if you can do it in this setting or not, but one of the things that concerns me is the link between Russia and Iran, the new amount of money that Iran now has, obviously, to purchase weapons, most of which would likely come from Russia, and the impact that that may have on the strategy in Syria.    General Stewart. One of the things that we assess, in addition to Russia moving into Syria to prop up the Assad regime, is Russia's ability to demonstrate their advanced weapons capabilities, to buyers in the Middle East and across the globe. So we certainly expect that this show of capability as Iran gets additional resources as they come out of the sanction regime could lead to Iran purchasing advanced weapon systems from the Russians.    We have already seen them go through with the deal of the S-300. There is discussion about some of their aircraft that the Russians are using in the region. So I fully expect that Iran will use some of their resources to continue to modernize their military forces and that their supplier of choice will likely be the Russians.</t>
   </si>
   <si>
@@ -238,9 +214,6 @@
     <t>412606</t>
   </si>
   <si>
-    <t>Donald Norcross</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Mr. Chairman.    General, again, thank you for your service.    Russia has become to many a more serious threat over the course of the last 5 years, particularly with Putin. When we are making projections through intelligence, what is the likelihood of that leadership remaining past the end of the year? What does your intelligence tell you?    General Stewart. The likelihood that Putin will remain----</t>
   </si>
   <si>
@@ -265,9 +238,6 @@
     <t>412648</t>
   </si>
   <si>
-    <t>Elise M. Stefanik</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you, General Stewart and General Marrs, for your service and for being here today to testify.    Like many of my colleagues, I want to focus my question on the implications of a resurgent Russia to the Intelligence Community. In addition to your testimony today, we have heard from senior leaders in DOD, as well as leaders in academia, of Russia's resurgence and military modernization in terms of their ability to apply this hybrid threat model in Eastern Europe.    What is your assessment of how well our Intelligence Community is equipped to counter this hybrid threat, what changes have we made, and what changes do we still need to make in order to maintain pace with the very complex 21st century threats we are facing today?    General Stewart. I am not sure that I am at all comfortable with the hybrid threat description. I think most nation-states would be really insane to take us on in a conventional approach, because of our superiority in our conventional weapons systems.    So they are going to take us on in the information space and try to control and dominate the narrative, they are going to try to come after us in asymmetric large or small formations that will confuse our targeting effort. That only makes sense to counter the way we are structured and the way that we generally fight and have fought, for the last 15 or 20 years.    So I am sometimes anxious when I hear Russia ascribed to creating this hybrid threat warfare, because I think it just makes sense to counter our superior conventional capabilities.    Now, having said that, how do you defeat that? How do you get after that from an intelligence standpoint? That requires a significant more investment in understanding the open source environment, so that you can understand these little green men as they show up, because they are going to do some things in the open source that you ought to be able to exploit. You are going to require much more robust HUMINT [human intelligence] capability, and those HUMINT capabilities must be targeted against specific threats and specific regions. And then you have got to have a way to deal with the idea that an adversary will want to deny, degrade, deceive, destroy your information environment, and your information messaging.    So if you can think your way through those, at least those three layers, you have got a chance to defeat the, quote, little green men, and then be able to apply conventional military capabilities against an advance.</t>
   </si>
   <si>
@@ -283,9 +253,6 @@
     <t>412532</t>
   </si>
   <si>
-    <t>Tulsi Gabbard</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, gentlemen. I am going to run through a few questions in different parts of the world, the first starting with Iran. I know that our intelligence in the past has been relatively limited or poor, and I am wondering now in the post-Iran deal world that we are living in how your intelligence picture has changed or improved, or what you are looking at in helping us both as we are looking at the implementation of the deal, but also what is happening in Iran overall.    General Stewart. I hate to do this, I really do, but I would like to take this to a closed session.</t>
   </si>
   <si>
@@ -301,9 +268,6 @@
     <t>412409</t>
   </si>
   <si>
-    <t>Richard B. Nugent</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And thank you, Generals, for being here today.    I have two areas of concern: one is obviously the foreign fighters as they flow back and forth from Syria and Iraq. General Breedlove was quoted, I think just recently in regards to his testimony, you know, the fact that, you know, the daily flow into Europe, you know, they are using that disguise of refugees coming in, and they are really taking advantage of that in Europe, but also possibly here in the United States.    Can you comment in regards, do we have a good handle on that or not?    General Stewart. In Europe, I am not sure that there is a great handle on how you sift through potential foreign fighters, jihadists that are coming in through this mass migration. So that is an issue, I think, there.    I am not concerned about the U.S., because of the capabilities that we have within our homeland defense. The things that we can do with the biometrics and the screening process makes it far less likely for them to just come across the border hidden within a mass wave of migrants.    So I think it is less of a challenge here. It is not a completely diminished challenge, but I think it is far less here than it is in Europe.</t>
   </si>
   <si>
@@ -346,9 +310,6 @@
     <t>412642</t>
   </si>
   <si>
-    <t>Brad Ashford</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you. Thank you, General, General.    I have two different questions on two different subjects. And I just go back to your comments about ISIS and the answer you just gave. I just need to fully understand this.    ISIL will probably conduct additional attacks, attacks in Europe and attempt to direct attacks in the United States homeland in 2016. I think that is, at least my constituents, what their fear is, that it won't--the lone attacker will probably give way to directed attacks. How do we--I am sure you have answered this already, but could you do it again? How do we address that? We know it is coming. We think it is coming, anyway. We strategize around it. What is our strategy? What do I tell my constituents about how we are going to direct----    General Stewart. I can tell you what the Intelligence Community will try to do: get as clean an understanding of the foreign fighters who have gone into Iraq and Syria to support ISIL; try to get the best appreciation for those who are flown back, and we have some techniques that has been very helpful; and most importantly, to make sure as a community, we share, not just across the defense intelligence community, but our law enforcement communities and all those who will see activities. That really is the key. If we can share this information that each of us have in our different silos, and I think that has gotten a lot better over the last several years, we have a great opportunity to counter some of these threats and challenges coming from overseas. So----</t>
   </si>
   <si>
@@ -373,9 +334,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. And thank you, gentlemen, for your testimony and your service.    General Stewart, you mentioned, you know, the transnational threats, the ISIS threat, you know, certainly didn't have happen overnight. I talk about it as a generational threat. I don't think it is going to be defeated overnight.    In your best military judgment, you know, how long do you think we are going to be dealing with this type of threat? Again, it is right now ISIS, but it comes in many jihadist forms and affiliates in these ungoverned spaces. How long do you think we will be dealing with this as a major threat, requiring military capabilities, you know, to address the threat?    General Stewart. Yeah. That is a terrific question. We have spent a little bit of time recently looking at this particular threat, the ISIL, the center of gravity, what are their critical vulnerabilities, so that we could take this particular threat down. But the reality is that it is based on a very extreme Salafist ideology, and unless there is a narrative that counters that ideology, it will reemerge someplace else in some other form.    That is probably not an ideology that we in the West can counter. We need our partners in the region who believe in the broadest sense of Islam and what it brings to the table to have this dialogue, this conversation about how do we--this very marginalized group.    When you take apart the 1.6 million Muslims and you whittle it down to this, Salafist jihadist, movement, you are probably talking less than a couple hundred thousand folks, who are as great a threat to Islamic regimes.    In fact, in many cases a greater threat to Islamic regimes than they are to the West. So we need them to counter that ideology and offer an alternative view of Islam that allows people to feel like they are part of a society that is looking to take care of their citizens, to enhance their opportunities, and, oh, by the way, practice their religion as they see fit.</t>
   </si>
   <si>
@@ -433,9 +391,6 @@
     <t>412214</t>
   </si>
   <si>
-    <t>Timothy J. Walz</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman. And thank you both for being here.    Again, I will try and get up to that line where I understand some of this may have to go into the classified, but after the 2009 Georgian incursion by the Russians, it became apparent to them, it looks like, that their armor wasn't where it needed to be, and there has been talk of how much they put into that and how much they have done.    I am curious about what you are able to gather from this, because we can gather that they have new main battle tanks and things like that, but putting an armored vehicle into the field is one thing, keeping it there is quite another.    I am more interested in what do we know about their maintenance or logistics, how do they do that, and are they doing it to a level that should be of concern?    General Stewart. Yeah. I think we probably should talk about this in a closed hearing, because they have systematically modernized, not just the weapons system, how they deploy and employ those forces and sustain those forces.</t>
   </si>
   <si>
@@ -445,9 +400,6 @@
     <t>400141</t>
   </si>
   <si>
-    <t>Trent Franks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Mr. Chairman. Thank you both for being here. I always appreciate those who give their lives to the cause of protecting their fellow human beings.    General Stewart, you know, there are obviously a lot of us that are concerned that we seem not to be having the kind of at least observable progress on ISIS, at least in the timeframe we would like to see it. I know everybody feels the same way. But in light of that, what do you consider to be the Islamic State's center of gravity? What are we doing to attack that center of gravity? What is the strongest thing that we can do against their weakest and most vulnerable and most critical----    General Stewart. So we define the center of gravity, the source of their power as either the virtual or the physical caliphate. So the existence of a caliphate, the narrative that the caliphate exists is a draw to forces.</t>
   </si>
   <si>
@@ -467,9 +419,6 @@
   </si>
   <si>
     <t>412271</t>
-  </si>
-  <si>
-    <t>Mike Coffman</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Having served in Iraq with the United States Marine Corps, the only thing--you know, I walked away opposed to the stability operations, or what we used to call nation building, but now I have concluded that the only thing worse than that is doing regime change without a follow-on stability operation or nation building, and that is what we have today in Libya. And I am just very concerned that the vacuum that has been created through regime change has given a real anchor for ISIS or for these extremist groups to operate out of.    To what extent do you see them moving out of Raqqa in Syria and over to Libya?    General Stewart. The specifics of any forces, ISIL forces, moving to Libya, I think we should talk about in a closed hearing.</t>
@@ -892,11 +841,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -918,11 +865,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -944,11 +889,9 @@
       <c r="F4" t="s">
         <v>11</v>
       </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G4" t="s"/>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -970,11 +913,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -996,11 +937,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1022,11 +961,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1046,13 +983,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
         <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1072,13 +1007,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
         <v>20</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1098,13 +1031,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1124,13 +1055,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G11" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1150,13 +1079,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1176,13 +1103,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1202,13 +1127,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1228,13 +1151,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1254,13 +1175,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1280,13 +1199,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
-      </c>
-      <c r="G17" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1306,13 +1223,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
         <v>30</v>
-      </c>
-      <c r="G18" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1332,13 +1247,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
-      </c>
-      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1358,13 +1271,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1384,13 +1295,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" t="s">
-        <v>31</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1410,13 +1319,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1436,13 +1343,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>38</v>
-      </c>
-      <c r="G23" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1462,13 +1367,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
-      </c>
-      <c r="G24" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1488,13 +1391,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
         <v>38</v>
-      </c>
-      <c r="G25" t="s">
-        <v>39</v>
-      </c>
-      <c r="H25" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1514,13 +1415,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s"/>
+      <c r="H26" t="s">
         <v>39</v>
-      </c>
-      <c r="H26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1540,13 +1439,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
-      </c>
-      <c r="G27" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1566,13 +1463,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
-      </c>
-      <c r="G28" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1592,13 +1487,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>38</v>
-      </c>
-      <c r="G29" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1618,13 +1511,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>38</v>
-      </c>
-      <c r="G30" t="s">
-        <v>39</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1644,13 +1535,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1670,13 +1559,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>49</v>
-      </c>
-      <c r="G32" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1696,13 +1583,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>49</v>
-      </c>
-      <c r="G33" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1722,13 +1607,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>49</v>
-      </c>
-      <c r="G34" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1748,13 +1631,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
         <v>49</v>
-      </c>
-      <c r="G35" t="s">
-        <v>50</v>
-      </c>
-      <c r="H35" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1774,13 +1655,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>19</v>
-      </c>
-      <c r="G36" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1800,13 +1679,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>56</v>
-      </c>
-      <c r="G37" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1826,13 +1703,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G38" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1852,13 +1727,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>56</v>
-      </c>
-      <c r="G39" t="s">
-        <v>57</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1878,13 +1751,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>19</v>
-      </c>
-      <c r="G40" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1904,13 +1775,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>62</v>
-      </c>
-      <c r="G41" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1930,13 +1799,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>62</v>
-      </c>
-      <c r="G42" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1956,13 +1823,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>19</v>
-      </c>
-      <c r="G43" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1982,13 +1847,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G44" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2008,13 +1871,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2034,13 +1895,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
-      </c>
-      <c r="G46" t="s">
-        <v>68</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2060,13 +1919,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>19</v>
-      </c>
-      <c r="G47" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2086,13 +1943,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2112,13 +1967,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>73</v>
-      </c>
-      <c r="G49" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2138,13 +1991,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="G50" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2164,13 +2015,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>73</v>
-      </c>
-      <c r="G51" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2190,13 +2039,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>73</v>
-      </c>
-      <c r="G52" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2216,13 +2063,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" t="s">
-        <v>74</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2242,13 +2087,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>19</v>
-      </c>
-      <c r="G54" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2268,13 +2111,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>82</v>
-      </c>
-      <c r="G55" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2294,13 +2135,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>82</v>
-      </c>
-      <c r="G56" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2320,13 +2159,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>82</v>
-      </c>
-      <c r="G57" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2346,13 +2183,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2372,13 +2207,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>88</v>
-      </c>
-      <c r="G59" t="s">
-        <v>89</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2398,13 +2231,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>88</v>
-      </c>
-      <c r="G60" t="s">
-        <v>89</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2424,13 +2255,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>88</v>
-      </c>
-      <c r="G61" t="s">
-        <v>89</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2450,13 +2279,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
-      </c>
-      <c r="G62" t="s">
-        <v>89</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2476,13 +2303,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>94</v>
-      </c>
-      <c r="G63" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2502,13 +2327,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>94</v>
-      </c>
-      <c r="G64" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2528,13 +2351,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>94</v>
-      </c>
-      <c r="G65" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2554,13 +2375,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>94</v>
-      </c>
-      <c r="G66" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2580,13 +2399,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>94</v>
-      </c>
-      <c r="G67" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2606,13 +2423,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>94</v>
-      </c>
-      <c r="G68" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2632,13 +2447,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>94</v>
-      </c>
-      <c r="G69" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2658,13 +2471,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>94</v>
-      </c>
-      <c r="G70" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2684,13 +2495,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2710,13 +2519,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>94</v>
-      </c>
-      <c r="G72" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2736,13 +2543,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
+        <v>83</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>94</v>
-      </c>
-      <c r="G73" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2762,13 +2567,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>94</v>
-      </c>
-      <c r="G74" t="s">
+        <v>83</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
         <v>95</v>
-      </c>
-      <c r="H74" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2788,13 +2591,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" t="s">
-        <v>95</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2814,13 +2615,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>109</v>
-      </c>
-      <c r="G76" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2840,13 +2639,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>109</v>
-      </c>
-      <c r="G77" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2866,13 +2663,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>109</v>
-      </c>
-      <c r="G78" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2892,13 +2687,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>109</v>
-      </c>
-      <c r="G79" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2918,13 +2711,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>109</v>
-      </c>
-      <c r="G80" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2944,13 +2735,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>109</v>
-      </c>
-      <c r="G81" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2970,13 +2759,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>109</v>
-      </c>
-      <c r="G82" t="s">
-        <v>110</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2996,13 +2783,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>118</v>
-      </c>
-      <c r="G83" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3022,13 +2807,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>118</v>
-      </c>
-      <c r="G84" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3048,13 +2831,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>118</v>
-      </c>
-      <c r="G85" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3074,13 +2855,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>118</v>
-      </c>
-      <c r="G86" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3100,13 +2879,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>118</v>
-      </c>
-      <c r="G87" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3126,13 +2903,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
-      </c>
-      <c r="G88" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3152,13 +2927,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>118</v>
-      </c>
-      <c r="G89" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3178,13 +2951,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G90" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3204,13 +2975,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>118</v>
-      </c>
-      <c r="G91" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3230,13 +2999,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>118</v>
-      </c>
-      <c r="G92" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3256,13 +3023,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>118</v>
-      </c>
-      <c r="G93" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3282,13 +3047,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3308,13 +3071,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
+        <v>105</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
         <v>118</v>
-      </c>
-      <c r="G95" t="s">
-        <v>119</v>
-      </c>
-      <c r="H95" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3334,13 +3095,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
-      </c>
-      <c r="G96" t="s">
+        <v>105</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
         <v>119</v>
-      </c>
-      <c r="H96" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3360,13 +3119,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
-      </c>
-      <c r="G97" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3386,13 +3143,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>118</v>
-      </c>
-      <c r="G98" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3412,13 +3167,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
-      </c>
-      <c r="G99" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3438,13 +3191,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>118</v>
-      </c>
-      <c r="G100" t="s">
-        <v>119</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3464,13 +3215,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
-      </c>
-      <c r="G101" t="s">
-        <v>139</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3490,13 +3239,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>138</v>
-      </c>
-      <c r="G102" t="s">
-        <v>139</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3516,13 +3263,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>142</v>
-      </c>
-      <c r="G103" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3542,13 +3287,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>142</v>
-      </c>
-      <c r="G104" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3568,13 +3311,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>142</v>
-      </c>
-      <c r="G105" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3594,13 +3335,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>142</v>
-      </c>
-      <c r="G106" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3620,13 +3359,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>142</v>
-      </c>
-      <c r="G107" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3646,13 +3383,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>142</v>
-      </c>
-      <c r="G108" t="s">
-        <v>143</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3672,13 +3407,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>150</v>
-      </c>
-      <c r="G109" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3698,13 +3431,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>150</v>
-      </c>
-      <c r="G110" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3724,13 +3455,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>150</v>
-      </c>
-      <c r="G111" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3750,13 +3479,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>150</v>
-      </c>
-      <c r="G112" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3776,13 +3503,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>150</v>
-      </c>
-      <c r="G113" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3802,13 +3527,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>150</v>
-      </c>
-      <c r="G114" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3828,13 +3551,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>150</v>
-      </c>
-      <c r="G115" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3854,13 +3575,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>150</v>
-      </c>
-      <c r="G116" t="s">
-        <v>151</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99649.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99649.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400097</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Susan</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Davis. Thank you, Mr. Chairman.    I ask unanimous consent that the ranking member's statement be entered into the record.    The Chairman. Without objection.    [The prepared statement of Mr. Smith can be found in the Appendix on page 39.]</t>
   </si>
   <si>
@@ -73,6 +82,12 @@
     <t>400137</t>
   </si>
   <si>
+    <t>Forbes</t>
+  </si>
+  <si>
+    <t>J.</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Forbes [presiding]. Thank you, Mrs. Davis.    The Chair now recognizes himself for a series of questions.    General Stewart, General Marrs, first of all, thank you both for being here.    General Stewart, I would never instruct a general what to do but I am going to request, especially with those three stars, that you pull that mike just a little closer to you so that we can hear you even better. We are proud of your service. And I was looking at your resume. I wished I had time to read it all in the record, but through all of those over 35 years, I guess now--how many years total do you have?    General Stewart. I think I am starting my 35th year.</t>
   </si>
   <si>
@@ -103,6 +118,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman.    General Stewart and General Marrs, welcome. Thank you for your testimony before this committee today as we help to shed light on some of the most dangerous threats that are facing the Nation around the world today.    General Stewart, I will start with you. I thought that was a very insightful analysis in terms of the challenges we face, in terms of resurgence of nation-states, breakdown of some traditional states, and the rise of destructive technologies.    Can you give the committee a sense of how you are properly organizing and resourcing the Defense Intelligence Agency to both better understand these threats and understand where they are going in the future?    Maybe some specific examples, so that we understand what the outcomes of these trends are going to be, how they will challenge the United States going forward, and how we are prepared to counter those threats?    General Stewart. Following the lead of my predecessor, you know, we have organized, reorganized the Defense Intelligence Agency along integrated intelligence center lines. That allows us to focus on regional challenges and give a center director all of the authority to work with the combatant commands to understand the many challenges in that region. That is a key foundational portion of what we have done to get a better sense of the challenges that we face.    We have laid on top of that an architecture, at least we are building an architecture. We probably refer to it as ICITE [intel community information technology environment], that will allow us to use a cloud-based architecture to move content, make content available to the analysts wherever they are in the enterprise.    That, I think, will be very significant in making information available and then using some big data analytic tools to help us to see these trends and represent those trends in a more timely manner. That is a very important next step.    And then leveraging or working closely with our partners, our international partners, so that when we understand we have shortfalls or risk, we can use our partners to cover, to mitigate some of those risks or shortfalls. I do not have enough capacity to cover the globe. I will not be able to cover every contingency and every crisis given the structure that we have today, which is why we focus primarily on those five areas that I have talked about.    But we are doing all the things process-wise, organizational-wise, architectural-wise, command and control-wise, to make sure we have the best information ready to deliver to our policymakers. And anything this committee can do to help increase our capacity would be greatly welcomed.</t>
   </si>
   <si>
@@ -124,6 +145,12 @@
     <t>400433</t>
   </si>
   <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Wilson. Thank you, Chairman Forbes.    And thank you General Stewart, General Marrs, for being here today.    And General Stewart, I appreciate you citing concerns about maintaining our technological edge and evolution of unconventional warfare. This is a focus of the Emerging Threats and Capabilities Subcommittee. I have the privilege of working with Congressman Langevin on these issues, and we look forward to working with you in the future to address that.    And also, General, Jim Clapper, the Director of National Intelligence, recently discussed potential threats being posed by advancements in biotechnology, including an ability to edit human genes, so-called gene editing. I am concerned about the types of technologies falling into the hands of terrorist groups or even lone actors.    Can you describe for the committee the national security threats being posed by these and similar biotechnologies.    General Stewart. I am always hesitant to talk about sequencing a genome. Could we take this to the closed hearing, if that is okay?</t>
   </si>
   <si>
@@ -154,6 +181,12 @@
     <t>400232</t>
   </si>
   <si>
+    <t>Larsen</t>
+  </si>
+  <si>
+    <t>Rick</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Larsen. Thank you, Mr. Chairman. Thank you for the patience in letting me get back to my chair. Wasn't too obvious.    General, can you talk a little bit more about China--and I apologize I wasn't here, but I was here for your opening statement--in discussing the three categories of territorial integrity. There was the first one, but then you talked about its projection into the South China Sea.    Do you do strategic or operational assessments or tactical assessments about the intent beyond South China Sea and how China might be using its investment in surface and other modernization for projection beyond the South China Sea?    General Stewart. So we have seen not only reclaiming some 3,000 acres of land in the South China Sea, we also see increasing naval activity in the East China Sea, disputed territory with Japan. Building commercial capability on these outlying regions will ultimately mean that China will want to defend their economic interests.    So we are starting to see surface-to-air missiles being placed in the region. We are starting to see, as I have indicated, increased missile technology that can counter our naval forces. We are seeing outposts being built.</t>
   </si>
   <si>
@@ -172,6 +205,12 @@
     <t>400411</t>
   </si>
   <si>
+    <t>Turner</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Turner. Thank you, Mr. Chairman.    General Stewart, there has been much discussion about Russia and the Open Skies Treaty. And so I want to ask you a question about the Open Skies Treaty. Can you please provide the committee with details on the counterintelligence risks to the United States and our allies of a digital electro-optical, EO sensor and an infrared sensor, IR sensor. We are aware these planes fly over not only the United States but also our allies in Europe. And can you provide the committee with any reports or assessments DIA has prepared on these questions?    Now, we have heard, of course, responses that we can just cover things, that we can mitigate this. But if we can, also the Russians can. But the concern I guess we have is what are we actually getting from this treaty, because Russia does get more because of our space assets, the clarity which we have versus the clarity that is offered from their access from Open Skies. And can't this information be used such as simple task such as targeting and threatening the United States?    This is obviously something that has been a significant amount of discussion. I would like to know what the DIA has reviewed, what assessments you have done, and what the DIA has prepared.    General Stewart. I have got to keep this really simple for me. This Open Skies discussion is, think Polaroids in the 1960s, 1970s, and 1980s, versus 1080 high-definition capability as we go to a digital environment. The things that you can see, the amount of data that you can collect, the things that you can do with post-processing using digital techniques allows Russia, in my opinion, to get incredible foundational intelligence on critical infrastructure, bases, ports, all of our facilities.    So from my perspective, it gives them a significant advantage and, yes, we both can use the same techniques. But I have a great concern about the quality of imagery, the quantity of the imagery, the ability to do post-processing of digital imagery, and what that allows them to see as foundational intelligence that I would love to have personally, and I would love to deny the Russians having that capability.</t>
   </si>
   <si>
@@ -187,6 +226,12 @@
     <t>412612</t>
   </si>
   <si>
+    <t>Gallego</t>
+  </si>
+  <si>
+    <t>Ruben</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Gallego. Thank you, Mr. Chair.    Lieutenant General Stewart, so what I am hearing here, Russia, China, Iran, North Korea, are the four national threats. We all agree on that. And global jihad is our growing transnational threat. And part of what makes answering these difficult is that they all require very different approaches to deal with them.    So terrorism requires more special forces; China, you know, requires us to have a strong maritime and naval capability; the Russians require the ground forces; and Iran and Korea will continue to use asymmetrical tools to basically mess with us.    From your perspective, is the U.S. meeting these threats with the right balance of resources at this point or into the future? And does refocus towards Asia or the proposed rotational brigade that we are having going through Eastern Europe, for example, allocate our resources smartly enough, or is this an area where we are probably missing the mark, now and maybe looking 5 years forward?    General Stewart. So I am always hesitant to talk about the right force construct, because that really is an intelligence question, and I would defer to the service chief and the chairman to talk about the right force construct. Certainly in my conversations and in the things that we have reported, we have explained the totality of the threat, the challenges that we face. And I think, I would like to defer to the services and the chairman to talk about what is the right construct military forces.</t>
   </si>
   <si>
@@ -199,6 +244,12 @@
     <t>412417</t>
   </si>
   <si>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Scott. Thank you, Mr. Chairman.    I don't know if you can do it in this setting or not, but one of the things that concerns me is the link between Russia and Iran, the new amount of money that Iran now has, obviously, to purchase weapons, most of which would likely come from Russia, and the impact that that may have on the strategy in Syria.    General Stewart. One of the things that we assess, in addition to Russia moving into Syria to prop up the Assad regime, is Russia's ability to demonstrate their advanced weapons capabilities, to buyers in the Middle East and across the globe. So we certainly expect that this show of capability as Iran gets additional resources as they come out of the sanction regime could lead to Iran purchasing advanced weapon systems from the Russians.    We have already seen them go through with the deal of the S-300. There is discussion about some of their aircraft that the Russians are using in the region. So I fully expect that Iran will use some of their resources to continue to modernize their military forces and that their supplier of choice will likely be the Russians.</t>
   </si>
   <si>
@@ -214,6 +265,12 @@
     <t>412606</t>
   </si>
   <si>
+    <t>Norcross</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Norcross. Thank you, Mr. Chairman.    General, again, thank you for your service.    Russia has become to many a more serious threat over the course of the last 5 years, particularly with Putin. When we are making projections through intelligence, what is the likelihood of that leadership remaining past the end of the year? What does your intelligence tell you?    General Stewart. The likelihood that Putin will remain----</t>
   </si>
   <si>
@@ -238,6 +295,12 @@
     <t>412648</t>
   </si>
   <si>
+    <t>Stefanik</t>
+  </si>
+  <si>
+    <t>Elise</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Stefanik. Thank you, Mr. Chairman. And thank you, General Stewart and General Marrs, for your service and for being here today to testify.    Like many of my colleagues, I want to focus my question on the implications of a resurgent Russia to the Intelligence Community. In addition to your testimony today, we have heard from senior leaders in DOD, as well as leaders in academia, of Russia's resurgence and military modernization in terms of their ability to apply this hybrid threat model in Eastern Europe.    What is your assessment of how well our Intelligence Community is equipped to counter this hybrid threat, what changes have we made, and what changes do we still need to make in order to maintain pace with the very complex 21st century threats we are facing today?    General Stewart. I am not sure that I am at all comfortable with the hybrid threat description. I think most nation-states would be really insane to take us on in a conventional approach, because of our superiority in our conventional weapons systems.    So they are going to take us on in the information space and try to control and dominate the narrative, they are going to try to come after us in asymmetric large or small formations that will confuse our targeting effort. That only makes sense to counter the way we are structured and the way that we generally fight and have fought, for the last 15 or 20 years.    So I am sometimes anxious when I hear Russia ascribed to creating this hybrid threat warfare, because I think it just makes sense to counter our superior conventional capabilities.    Now, having said that, how do you defeat that? How do you get after that from an intelligence standpoint? That requires a significant more investment in understanding the open source environment, so that you can understand these little green men as they show up, because they are going to do some things in the open source that you ought to be able to exploit. You are going to require much more robust HUMINT [human intelligence] capability, and those HUMINT capabilities must be targeted against specific threats and specific regions. And then you have got to have a way to deal with the idea that an adversary will want to deny, degrade, deceive, destroy your information environment, and your information messaging.    So if you can think your way through those, at least those three layers, you have got a chance to defeat the, quote, little green men, and then be able to apply conventional military capabilities against an advance.</t>
   </si>
   <si>
@@ -253,6 +316,12 @@
     <t>412532</t>
   </si>
   <si>
+    <t>Gabbard</t>
+  </si>
+  <si>
+    <t>Tulsi</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Gabbard. Thank you, gentlemen. I am going to run through a few questions in different parts of the world, the first starting with Iran. I know that our intelligence in the past has been relatively limited or poor, and I am wondering now in the post-Iran deal world that we are living in how your intelligence picture has changed or improved, or what you are looking at in helping us both as we are looking at the implementation of the deal, but also what is happening in Iran overall.    General Stewart. I hate to do this, I really do, but I would like to take this to a closed session.</t>
   </si>
   <si>
@@ -268,6 +337,12 @@
     <t>412409</t>
   </si>
   <si>
+    <t>Nugent</t>
+  </si>
+  <si>
+    <t>Richard</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Nugent. Thank you, Mr. Chairman. And thank you, Generals, for being here today.    I have two areas of concern: one is obviously the foreign fighters as they flow back and forth from Syria and Iraq. General Breedlove was quoted, I think just recently in regards to his testimony, you know, the fact that, you know, the daily flow into Europe, you know, they are using that disguise of refugees coming in, and they are really taking advantage of that in Europe, but also possibly here in the United States.    Can you comment in regards, do we have a good handle on that or not?    General Stewart. In Europe, I am not sure that there is a great handle on how you sift through potential foreign fighters, jihadists that are coming in through this mass migration. So that is an issue, I think, there.    I am not concerned about the U.S., because of the capabilities that we have within our homeland defense. The things that we can do with the biometrics and the screening process makes it far less likely for them to just come across the border hidden within a mass wave of migrants.    So I think it is less of a challenge here. It is not a completely diminished challenge, but I think it is far less here than it is in Europe.</t>
   </si>
   <si>
@@ -310,6 +385,12 @@
     <t>412642</t>
   </si>
   <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Brad</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Ashford. Thank you. Thank you, General, General.    I have two different questions on two different subjects. And I just go back to your comments about ISIS and the answer you just gave. I just need to fully understand this.    ISIL will probably conduct additional attacks, attacks in Europe and attempt to direct attacks in the United States homeland in 2016. I think that is, at least my constituents, what their fear is, that it won't--the lone attacker will probably give way to directed attacks. How do we--I am sure you have answered this already, but could you do it again? How do we address that? We know it is coming. We think it is coming, anyway. We strategize around it. What is our strategy? What do I tell my constituents about how we are going to direct----    General Stewart. I can tell you what the Intelligence Community will try to do: get as clean an understanding of the foreign fighters who have gone into Iraq and Syria to support ISIL; try to get the best appreciation for those who are flown back, and we have some techniques that has been very helpful; and most importantly, to make sure as a community, we share, not just across the defense intelligence community, but our law enforcement communities and all those who will see activities. That really is the key. If we can share this information that each of us have in our different silos, and I think that has gotten a lot better over the last several years, we have a great opportunity to counter some of these threats and challenges coming from overseas. So----</t>
   </si>
   <si>
@@ -334,6 +415,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman. And thank you, gentlemen, for your testimony and your service.    General Stewart, you mentioned, you know, the transnational threats, the ISIS threat, you know, certainly didn't have happen overnight. I talk about it as a generational threat. I don't think it is going to be defeated overnight.    In your best military judgment, you know, how long do you think we are going to be dealing with this type of threat? Again, it is right now ISIS, but it comes in many jihadist forms and affiliates in these ungoverned spaces. How long do you think we will be dealing with this as a major threat, requiring military capabilities, you know, to address the threat?    General Stewart. Yeah. That is a terrific question. We have spent a little bit of time recently looking at this particular threat, the ISIL, the center of gravity, what are their critical vulnerabilities, so that we could take this particular threat down. But the reality is that it is based on a very extreme Salafist ideology, and unless there is a narrative that counters that ideology, it will reemerge someplace else in some other form.    That is probably not an ideology that we in the West can counter. We need our partners in the region who believe in the broadest sense of Islam and what it brings to the table to have this dialogue, this conversation about how do we--this very marginalized group.    When you take apart the 1.6 million Muslims and you whittle it down to this, Salafist jihadist, movement, you are probably talking less than a couple hundred thousand folks, who are as great a threat to Islamic regimes.    In fact, in many cases a greater threat to Islamic regimes than they are to the West. So we need them to counter that ideology and offer an alternative view of Islam that allows people to feel like they are part of a society that is looking to take care of their citizens, to enhance their opportunities, and, oh, by the way, practice their religion as they see fit.</t>
   </si>
   <si>
@@ -391,6 +478,12 @@
     <t>412214</t>
   </si>
   <si>
+    <t>Walz</t>
+  </si>
+  <si>
+    <t>Timothy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Walz. Thank you, Chairman. And thank you both for being here.    Again, I will try and get up to that line where I understand some of this may have to go into the classified, but after the 2009 Georgian incursion by the Russians, it became apparent to them, it looks like, that their armor wasn't where it needed to be, and there has been talk of how much they put into that and how much they have done.    I am curious about what you are able to gather from this, because we can gather that they have new main battle tanks and things like that, but putting an armored vehicle into the field is one thing, keeping it there is quite another.    I am more interested in what do we know about their maintenance or logistics, how do they do that, and are they doing it to a level that should be of concern?    General Stewart. Yeah. I think we probably should talk about this in a closed hearing, because they have systematically modernized, not just the weapons system, how they deploy and employ those forces and sustain those forces.</t>
   </si>
   <si>
@@ -400,6 +493,12 @@
     <t>400141</t>
   </si>
   <si>
+    <t>Franks</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Franks. Thank you, Mr. Chairman. Thank you both for being here. I always appreciate those who give their lives to the cause of protecting their fellow human beings.    General Stewart, you know, there are obviously a lot of us that are concerned that we seem not to be having the kind of at least observable progress on ISIS, at least in the timeframe we would like to see it. I know everybody feels the same way. But in light of that, what do you consider to be the Islamic State's center of gravity? What are we doing to attack that center of gravity? What is the strongest thing that we can do against their weakest and most vulnerable and most critical----    General Stewart. So we define the center of gravity, the source of their power as either the virtual or the physical caliphate. So the existence of a caliphate, the narrative that the caliphate exists is a draw to forces.</t>
   </si>
   <si>
@@ -419,6 +518,12 @@
   </si>
   <si>
     <t>412271</t>
+  </si>
+  <si>
+    <t>Coffman</t>
+  </si>
+  <si>
+    <t>Mike</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Coffman. Thank you, Mr. Chairman.    Having served in Iraq with the United States Marine Corps, the only thing--you know, I walked away opposed to the stability operations, or what we used to call nation building, but now I have concluded that the only thing worse than that is doing regime change without a follow-on stability operation or nation building, and that is what we have today in Libya. And I am just very concerned that the vacuum that has been created through regime change has given a real anchor for ISIS or for these extremist groups to operate out of.    To what extent do you see them moving out of Raqqa in Syria and over to Libya?    General Stewart. The specifics of any forces, ISIL forces, moving to Libya, I think we should talk about in a closed hearing.</t>
@@ -791,7 +896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -799,7 +904,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -821,2765 +926,3343 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
       <c r="H4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
       <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
       <c r="H10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
       <c r="H11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s"/>
       <c r="H12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
+      </c>
       <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
       <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>22</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G17" t="s">
+        <v>34</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G18" t="s">
+        <v>34</v>
+      </c>
       <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G19" t="s">
+        <v>34</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
       <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>33</v>
+      </c>
+      <c r="G21" t="s">
+        <v>34</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
       <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>35</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G23" t="s">
+        <v>43</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>43</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G25" t="s">
+        <v>43</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G27" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G28" t="s">
+        <v>43</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>35</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>42</v>
+      </c>
+      <c r="G30" t="s">
+        <v>43</v>
+      </c>
       <c r="H30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>44</v>
+      </c>
+      <c r="I30" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>22</v>
+      </c>
       <c r="H31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>45</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>54</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>18</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G36" t="s">
+        <v>22</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G37" t="s">
+        <v>63</v>
+      </c>
       <c r="H37" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>63</v>
+      </c>
       <c r="H38" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>51</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>62</v>
+      </c>
+      <c r="G39" t="s">
+        <v>63</v>
+      </c>
       <c r="H39" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>64</v>
+      </c>
+      <c r="I39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
       <c r="H40" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G41" t="s">
+        <v>70</v>
+      </c>
       <c r="H41" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I41" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>69</v>
+      </c>
+      <c r="G42" t="s">
+        <v>70</v>
+      </c>
       <c r="H42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>71</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>22</v>
+      </c>
       <c r="H43" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G44" t="s">
+        <v>76</v>
+      </c>
       <c r="H44" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I44" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>60</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
       <c r="H45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I45" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>75</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
       <c r="H46" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>77</v>
+      </c>
+      <c r="I46" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>18</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
       <c r="H47" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I47" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G48" t="s">
+        <v>83</v>
+      </c>
       <c r="H48" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I48" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G49" t="s">
+        <v>83</v>
+      </c>
       <c r="H49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I49" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G50" t="s">
+        <v>83</v>
+      </c>
       <c r="H50" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I50" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G51" t="s">
+        <v>83</v>
+      </c>
       <c r="H51" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
       <c r="H52" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>82</v>
+      </c>
+      <c r="G53" t="s">
+        <v>83</v>
+      </c>
       <c r="H53" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>84</v>
+      </c>
+      <c r="I53" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>21</v>
+      </c>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
       <c r="H54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>73</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G55" t="s">
+        <v>93</v>
+      </c>
       <c r="H55" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I55" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G56" t="s">
+        <v>93</v>
+      </c>
       <c r="H56" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>73</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G57" t="s">
+        <v>93</v>
+      </c>
       <c r="H57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I57" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>73</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>92</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
       <c r="H58" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>94</v>
+      </c>
+      <c r="I58" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G59" t="s">
+        <v>100</v>
+      </c>
       <c r="H59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G60" t="s">
+        <v>100</v>
+      </c>
       <c r="H60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G61" t="s">
+        <v>100</v>
+      </c>
       <c r="H61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>99</v>
+      </c>
+      <c r="G62" t="s">
+        <v>100</v>
+      </c>
       <c r="H62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>101</v>
+      </c>
+      <c r="I62" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
       <c r="H63" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I63" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>83</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G64" t="s">
+        <v>107</v>
+      </c>
       <c r="H64" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I64" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>83</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G65" t="s">
+        <v>107</v>
+      </c>
       <c r="H65" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>83</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G66" t="s">
+        <v>107</v>
+      </c>
       <c r="H66" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I66" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>83</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>107</v>
+      </c>
       <c r="H67" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>83</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G68" t="s">
+        <v>107</v>
+      </c>
       <c r="H68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I68" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G69" t="s">
+        <v>107</v>
+      </c>
       <c r="H69" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I69" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>83</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>107</v>
+      </c>
       <c r="H70" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I70" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>83</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G71" t="s">
+        <v>107</v>
+      </c>
       <c r="H71" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I71" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>83</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G72" t="s">
+        <v>107</v>
+      </c>
       <c r="H72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>83</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
       <c r="H73" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>83</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G74" t="s">
+        <v>107</v>
+      </c>
       <c r="H74" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I74" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>83</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>106</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
       <c r="H75" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>108</v>
+      </c>
+      <c r="I75" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>97</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G76" t="s">
+        <v>123</v>
+      </c>
       <c r="H76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I76" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>97</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G77" t="s">
+        <v>123</v>
+      </c>
       <c r="H77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I77" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>97</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G78" t="s">
+        <v>123</v>
+      </c>
       <c r="H78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I78" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>97</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G79" t="s">
+        <v>123</v>
+      </c>
       <c r="H79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I79" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G80" t="s">
+        <v>123</v>
+      </c>
       <c r="H80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I80" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>97</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G81" t="s">
+        <v>123</v>
+      </c>
       <c r="H81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I81" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>122</v>
+      </c>
+      <c r="G82" t="s">
+        <v>123</v>
+      </c>
       <c r="H82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>124</v>
+      </c>
+      <c r="I82" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G83" t="s">
+        <v>133</v>
+      </c>
       <c r="H83" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I83" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G84" t="s">
+        <v>133</v>
+      </c>
       <c r="H84" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I84" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G85" t="s">
+        <v>133</v>
+      </c>
       <c r="H85" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I85" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G86" t="s">
+        <v>133</v>
+      </c>
       <c r="H86" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I86" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G87" t="s">
+        <v>133</v>
+      </c>
       <c r="H87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I87" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>105</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G88" t="s">
+        <v>133</v>
+      </c>
       <c r="H88" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I88" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G89" t="s">
+        <v>133</v>
+      </c>
       <c r="H89" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I89" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G90" t="s">
+        <v>133</v>
+      </c>
       <c r="H90" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I90" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G91" t="s">
+        <v>133</v>
+      </c>
       <c r="H91" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I91" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G92" t="s">
+        <v>133</v>
+      </c>
       <c r="H92" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I92" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G93" t="s">
+        <v>133</v>
+      </c>
       <c r="H93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I93" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>105</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G94" t="s">
+        <v>133</v>
+      </c>
       <c r="H94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I94" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>105</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G95" t="s">
+        <v>133</v>
+      </c>
       <c r="H95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I95" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G96" t="s">
+        <v>133</v>
+      </c>
       <c r="H96" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I96" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G97" t="s">
+        <v>133</v>
+      </c>
       <c r="H97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I97" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>105</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
       <c r="H98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I98" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>105</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G99" t="s">
+        <v>133</v>
+      </c>
       <c r="H99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I99" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>132</v>
+      </c>
+      <c r="G100" t="s">
+        <v>133</v>
+      </c>
       <c r="H100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>134</v>
+      </c>
+      <c r="I100" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>124</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G101" t="s">
+        <v>154</v>
+      </c>
       <c r="H101" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I101" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>124</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>153</v>
+      </c>
+      <c r="G102" t="s">
+        <v>154</v>
+      </c>
       <c r="H102" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="I102" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>127</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G103" t="s">
+        <v>159</v>
+      </c>
       <c r="H103" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I103" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>127</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G104" t="s">
+        <v>159</v>
+      </c>
       <c r="H104" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I104" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>127</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G105" t="s">
+        <v>159</v>
+      </c>
       <c r="H105" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I105" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>127</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G106" t="s">
+        <v>159</v>
+      </c>
       <c r="H106" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I106" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>127</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G107" t="s">
+        <v>159</v>
+      </c>
       <c r="H107" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I107" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G108" t="s">
+        <v>159</v>
+      </c>
       <c r="H108" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I108" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>134</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G109" t="s">
+        <v>168</v>
+      </c>
       <c r="H109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I109" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G110" t="s">
+        <v>168</v>
+      </c>
       <c r="H110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I110" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>134</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G111" t="s">
+        <v>168</v>
+      </c>
       <c r="H111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I111" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G112" t="s">
+        <v>168</v>
+      </c>
       <c r="H112" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I112" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>134</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G113" t="s">
+        <v>168</v>
+      </c>
       <c r="H113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I113" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G114" t="s">
+        <v>168</v>
+      </c>
       <c r="H114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I114" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>134</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G115" t="s">
+        <v>168</v>
+      </c>
       <c r="H115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>169</v>
+      </c>
+      <c r="I115" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>134</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>167</v>
+      </c>
+      <c r="G116" t="s">
+        <v>168</v>
+      </c>
       <c r="H116" t="s">
-        <v>142</v>
+        <v>169</v>
+      </c>
+      <c r="I116" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg99649.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg99649.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="180">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>400097</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Davis</t>
@@ -896,7 +902,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:J116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,7 +910,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -929,3340 +935,3688 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
         <v>23</v>
       </c>
-      <c r="I10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
       </c>
-      <c r="I11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>23</v>
       </c>
-      <c r="I12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>21</v>
-      </c>
       <c r="G13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>23</v>
       </c>
-      <c r="I13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>21</v>
-      </c>
       <c r="G14" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G15" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
         <v>23</v>
       </c>
-      <c r="I15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" t="s">
-        <v>21</v>
-      </c>
       <c r="G16" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I18" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="19" spans="1:9">
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G24" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I24" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="J24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G25" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G30" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>46</v>
+      </c>
+      <c r="J30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G31" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I33" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="34" spans="1:9">
+      <c r="J33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>58</v>
+      </c>
+      <c r="J35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G36" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G37" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G38" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I38" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="39" spans="1:9">
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G39" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>66</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G40" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G41" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I41" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>73</v>
+      </c>
+      <c r="J41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G42" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I42" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="43" spans="1:9">
+      <c r="J42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G43" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I43" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G44" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="46" spans="1:9">
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>79</v>
+      </c>
+      <c r="J46" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G47" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I47" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J48" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G49" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I49" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="50" spans="1:9">
+      <c r="J49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G50" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I50" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G51" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I51" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G53" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>86</v>
+      </c>
+      <c r="J53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G54" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I54" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G55" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I55" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G56" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I56" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G57" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I57" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I58" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I60" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="61" spans="1:9">
+      <c r="J60" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I62" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I63" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J63" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I64" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I65" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G66" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I66" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G67" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I67" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J67" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G68" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I68" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J68" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J69" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I70" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J70" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I71" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J71" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J72" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I73" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J73" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I74" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J74" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I75" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G76" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I76" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G77" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I77" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="78" spans="1:9">
+      <c r="J77" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G78" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J78" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G79" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I79" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J79" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G80" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I80" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J80" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G81" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I81" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G82" t="s">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I82" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>126</v>
+      </c>
+      <c r="J82" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G83" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I83" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J83" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G84" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I84" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="85" spans="1:9">
+      <c r="J84" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G85" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I85" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J85" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G86" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I86" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J86" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G87" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I87" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J87" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G88" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I88" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J88" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G89" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I89" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G90" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I90" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G91" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I91" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J91" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G92" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I92" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J92" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G93" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I93" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J93" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G94" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I94" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J94" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G95" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I95" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J95" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G96" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I96" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J96" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G97" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I97" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J97" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I98" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J98" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G99" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I99" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J99" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="G100" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I100" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>136</v>
+      </c>
+      <c r="J100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G101" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I101" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>157</v>
+      </c>
+      <c r="J101" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G102" t="s">
-        <v>154</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I102" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="103" spans="1:9">
+      <c r="J102" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G103" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I103" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J103" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G104" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I104" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="105" spans="1:9">
+      <c r="J104" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G105" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I105" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J105" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G106" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I106" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J106" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G107" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I107" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J107" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G108" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I108" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>162</v>
+      </c>
+      <c r="J108" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G109" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I109" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J109" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G110" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I110" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="111" spans="1:9">
+      <c r="J110" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G111" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I111" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J111" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G112" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I112" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J112" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G113" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I113" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J113" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G114" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I114" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J114" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G115" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I115" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>171</v>
+      </c>
+      <c r="J115" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G116" t="s">
-        <v>168</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I116" t="s">
-        <v>177</v>
+        <v>171</v>
+      </c>
+      <c r="J116" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
